--- a/Excel/skillcurb.xlsx
+++ b/Excel/skillcurb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,25 +468,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FosFd0w9yt8</t>
+          <t>yeFarGJWXho</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BEST Opensource Coding LLM Qwen 2.5 (Local Install)</t>
+          <t>How To Build a Mobile App with Cursor AI &amp; DeepSeek (No Code Needed)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8290</v>
+        <v>17458</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0:06:37</t>
+          <t>0:10:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,25 +498,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>O6I6lmi7Itg</t>
+          <t>NoV8mUciS5A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>How to Scrape Unlimited Leads from Google Maps Data for FREE in 2025? (n8n &amp; OpenAI)</t>
+          <t>LEARN how to Setup MCP Servers in Cursor AI (10X faster)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2413</v>
+        <v>16491</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0:10:47</t>
+          <t>0:09:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,25 +528,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F9DfyTnqe2g</t>
+          <t>EFTxVretyG0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OpenSource FREE AI Code Generator CodeQwen (Local Install)</t>
+          <t>Create Mobile App in Minutes using CURSOR AI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1953</v>
+        <v>10617</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:08:18</t>
+          <t>0:14:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,25 +558,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jZwYDzlrmB4</t>
+          <t>FftwHglZxkA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>n8n AI Agent: Lets build AI Agents without Coding (for Beginners)</t>
+          <t>Roo Code AI Agent in VSCode is INSANE (Cursor Alternative)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>608</v>
+        <v>1843</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0:11:37</t>
+          <t>0:16:12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,25 +588,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NNWSRnrh9FU</t>
+          <t>WJ2SAlhliOk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AI Product Photography Made EASY With n8n Workflow (Full Tutorial)</t>
+          <t>100% Free AI Code Generation with Trae AI | Cursor Alternative (TikTok)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>564</v>
+        <v>1209</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0:19:48</t>
+          <t>0:12:13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -618,25 +618,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xCbvJBHziG8</t>
+          <t>wxNsAmPf1IY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Scrape ANY Website using n8n (NO CODE)</t>
+          <t>Can Google Firebase Studio AI Coding Agent beat Cursor &amp; Bolt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>155</v>
+        <v>992</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0:09:36</t>
+          <t>0:10:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,28 +648,58 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CoXGGvGxlaA</t>
+          <t>GZ-duIFf-B0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NEW Alibaba Qwen QWQ-32B Competes with DeepSeek (Fully Tested)</t>
+          <t>Building a Car Racing Game from Scratch in Minutes (Cursor AI)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>131</v>
+        <v>877</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0:13:04</t>
+          <t>0:12:12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LuUGndGpGO0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gemini CLI: Google’s New AI Agent in Action (FREE Install)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>452</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0:08:03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
